--- a/financial_models/opportunities/1910.HK_Valuation_v1.00.xlsx
+++ b/financial_models/opportunities/1910.HK_Valuation_v1.00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A181D38-2A1A-4A71-A97F-6864EC3DB49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41E733E-871D-43F4-BF4D-5BEB9A127D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3566,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.30079753754707E-2</v>
+        <v>3.933259443931391E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4853,7 +4853,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:H29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>18.559999465942401</v>
+        <v>20.3</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="G5" s="272">
         <f>G3*G4/1000000</f>
-        <v>27138.76156853147</v>
+        <v>29683.021319700001</v>
       </c>
       <c r="H5" s="272"/>
       <c r="I5" s="38"/>
@@ -4996,7 +4996,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>7.78</v>
+        <v>7.7821799914042158</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.1706737368910969</v>
+        <v>2.3735093999057768</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>9.5914232984687153E-2</v>
+        <v>8.771758247183653E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.30079753754707E-2</v>
+        <v>3.933259443931391E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5241,20 +5241,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>16.76139260878637</v>
+        <v>15.98451934377305</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>33.920051327645808</v>
+        <v>32.457821065650023</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>19.719285422101613</v>
+        <v>18.805316875027117</v>
       </c>
       <c r="G29" s="271">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>29.495696806648532</v>
+        <v>28.224192231000021</v>
       </c>
       <c r="H29" s="271"/>
     </row>
@@ -10259,8 +10259,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92:F92"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10353,11 +10353,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-18230.938618312939</v>
+        <v>-18438.253326337381</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>12.344703558377681</v>
+        <v>12.47371084401828</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11444,11 +11444,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.1706737368910969</v>
+        <v>2.3735093999057768</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>278.06330569575027</v>
+        <v>304.04655412793085</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12129,17 +12129,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.5914232984687153E-2</v>
+        <v>8.771758247183653E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.5914232984687153E-2</v>
+        <v>8.771758247183653E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.5914232984687153E-2</v>
+        <v>8.771758247183653E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12180,17 +12180,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.30079753754707E-2</v>
+        <v>3.933259443931391E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.30079753754707E-2</v>
+        <v>3.933259443931391E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.30079753754707E-2</v>
+        <v>3.933259443931391E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12250,14 +12250,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>42.638303681128257</v>
+        <v>41.078965682383668</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>42.638303681128257</v>
+        <v>41.078965682383668</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12275,14 +12275,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>14.928671739386804</v>
+        <v>14.671598489627756</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>14.928671739386804</v>
+        <v>14.671598489627756</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12325,21 +12325,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>30997.222646071146</v>
+        <v>29863.614060489494</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.198772622840401</v>
+        <v>20.423506047398</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.198772622840401</v>
+        <v>20.423506047398</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>30.975184007387316</v>
+        <v>29.842381403370904</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12349,14 +12349,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>2163.3325183129373</v>
+        <v>2366.1450099897825</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.4794872007387849</v>
+        <v>1.6181891723708817</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12388,27 +12388,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>28833.890127758208</v>
+        <v>27497.469050499712</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>16.76139260878637</v>
+        <v>15.98451934377305</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>19.719285422101617</v>
+        <v>18.805316875027117</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>19.719285422101613</v>
+        <v>18.805316875027117</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.719285422101613</v>
+        <v>18.80531687502712</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>29.495696806648532</v>
+        <v>28.224192231000021</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12449,27 +12449,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>10852.855807223292</v>
+        <v>10665.968523462583</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.308860036068948</v>
+        <v>6.2002208228783813</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.422188277728174</v>
+        <v>7.2943774386804492</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>7.422188277728174</v>
+        <v>7.2943774386804492</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>7.422188277728174</v>
+        <v>7.2943774386804492</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>10.845139562108232</v>
+        <v>10.658385152875299</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12510,27 +12510,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>19843.372967490752</v>
+        <v>19081.718786981146</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>11.535126322427658</v>
+        <v>11.092370083325715</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>13.570736849914896</v>
+        <v>13.049847156853783</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>13.570736849914894</v>
+        <v>13.049847156853783</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>13.570736849914894</v>
+        <v>13.049847156853785</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>20.170418184378381</v>
+        <v>19.441288691937661</v>
       </c>
       <c r="K106" s="24"/>
     </row>
